--- a/data/trans_orig/P05A04-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>418138</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>404475</v>
+        <v>402794</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>431884</v>
+        <v>430543</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8938251949782686</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8646203334820796</v>
+        <v>0.8610262816135111</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9232092429509299</v>
+        <v>0.9203440789180379</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>262</v>
@@ -765,19 +765,19 @@
         <v>268847</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>256371</v>
+        <v>255275</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>278618</v>
+        <v>279548</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8795520554346302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8387380498773574</v>
+        <v>0.8351501607918052</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9115200023521485</v>
+        <v>0.9145630316125337</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>663</v>
@@ -786,19 +786,19 @@
         <v>686984</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>666664</v>
+        <v>666772</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>703759</v>
+        <v>702529</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8881846825101042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8619133603219425</v>
+        <v>0.8620530164217277</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9098721222308838</v>
+        <v>0.9082820387719169</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>35706</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24816</v>
+        <v>25362</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49268</v>
+        <v>48466</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07632697148321936</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05304830841560099</v>
+        <v>0.05421408478629246</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1053171444241483</v>
+        <v>0.1036029031022318</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -836,19 +836,19 @@
         <v>30576</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21686</v>
+        <v>20523</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43309</v>
+        <v>42807</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1000301851032536</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07094630233999727</v>
+        <v>0.06714185952248844</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1416891811749344</v>
+        <v>0.1400452395015905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -857,19 +857,19 @@
         <v>66282</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51664</v>
+        <v>52289</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>84178</v>
+        <v>83187</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08569409576240142</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06679460688452533</v>
+        <v>0.06760336023280462</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1088315606371259</v>
+        <v>0.1075504664858835</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>13963</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7033</v>
+        <v>7475</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21874</v>
+        <v>23269</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.029847833538512</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01503300357406765</v>
+        <v>0.01597830211142996</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04675828051258219</v>
+        <v>0.049740155857364</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -907,19 +907,19 @@
         <v>6241</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2975</v>
+        <v>2163</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13173</v>
+        <v>12818</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02041775946211613</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009734319166216554</v>
+        <v>0.007075902715354471</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04309773551231445</v>
+        <v>0.04193549774762089</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -928,19 +928,19 @@
         <v>20204</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>12786</v>
+        <v>13160</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31079</v>
+        <v>29748</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0261212217274944</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01653121696768428</v>
+        <v>0.0170140382897196</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04018115004230074</v>
+        <v>0.03846033182072293</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>320249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>305667</v>
+        <v>305730</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>331510</v>
+        <v>330751</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8774030075707956</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8374535820841316</v>
+        <v>0.8376246711796498</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9082575091988495</v>
+        <v>0.9061762899224812</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>330</v>
@@ -1053,19 +1053,19 @@
         <v>336284</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>323476</v>
+        <v>321895</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>345682</v>
+        <v>345661</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9118683482959361</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8771375711828294</v>
+        <v>0.8728508485053894</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9373508581126775</v>
+        <v>0.9372930646474309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>636</v>
@@ -1074,19 +1074,19 @@
         <v>656532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>637456</v>
+        <v>639037</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>673676</v>
+        <v>671306</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8947246815504264</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8687274523918598</v>
+        <v>0.8708823439065896</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9180886014492785</v>
+        <v>0.9148590685887689</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>37068</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26799</v>
+        <v>27117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>50491</v>
+        <v>51155</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1015584258379665</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07342176634397039</v>
+        <v>0.07429311772963079</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1383325698863529</v>
+        <v>0.1401508726493229</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>22</v>
@@ -1124,19 +1124,19 @@
         <v>23625</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15198</v>
+        <v>14933</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34971</v>
+        <v>35581</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06406280505197161</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04121045001942499</v>
+        <v>0.04049167911601724</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09482723242287704</v>
+        <v>0.09648192421029279</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>57</v>
@@ -1145,19 +1145,19 @@
         <v>60694</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>46022</v>
+        <v>47326</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>77954</v>
+        <v>77988</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08271378640444116</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06271881859494401</v>
+        <v>0.06449558200952143</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1062362202303354</v>
+        <v>0.1062819301789336</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>7679</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3318</v>
+        <v>3592</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14481</v>
+        <v>16438</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0210385665912379</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009089604159406703</v>
+        <v>0.009841713357325803</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03967396884618472</v>
+        <v>0.04503626092631717</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1195,19 +1195,19 @@
         <v>8876</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4194</v>
+        <v>4246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16994</v>
+        <v>16441</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02406884665209229</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01137207976219779</v>
+        <v>0.01151365174683674</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04608189887301586</v>
+        <v>0.04458260481498</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1216,19 +1216,19 @@
         <v>16555</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9457</v>
+        <v>9915</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26638</v>
+        <v>27478</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0225615320451325</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01288765794256662</v>
+        <v>0.01351181326616211</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03630237918022342</v>
+        <v>0.03744728407457268</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>475606</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>459329</v>
+        <v>458597</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>488428</v>
+        <v>490495</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8859060136378095</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8555883791921814</v>
+        <v>0.8542231956156521</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9097898792583542</v>
+        <v>0.9136407920368603</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>151</v>
@@ -1341,19 +1341,19 @@
         <v>153968</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>145736</v>
+        <v>144351</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>160127</v>
+        <v>159820</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9176682806243651</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8686017202016479</v>
+        <v>0.8603496199614674</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9543744659590365</v>
+        <v>0.952547179031635</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>619</v>
@@ -1362,19 +1362,19 @@
         <v>629574</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>611029</v>
+        <v>611403</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>644046</v>
+        <v>644365</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8934689360165647</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8671508331512587</v>
+        <v>0.8676808476100932</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9140068072008924</v>
+        <v>0.9144596196248611</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>52112</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39764</v>
+        <v>39601</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66826</v>
+        <v>67822</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0970676482010619</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07406816935552481</v>
+        <v>0.0737653014036808</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1244754705044553</v>
+        <v>0.1263318876308733</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1412,19 +1412,19 @@
         <v>12834</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6825</v>
+        <v>7113</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20968</v>
+        <v>22550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07649055312601491</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04067482704886313</v>
+        <v>0.04239323249121365</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1249701632739352</v>
+        <v>0.1343985426437924</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -1433,19 +1433,19 @@
         <v>64945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51481</v>
+        <v>51316</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82653</v>
+        <v>83273</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09216803027080775</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07306053797271836</v>
+        <v>0.0728262290300267</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.117298810118457</v>
+        <v>0.1181775148203554</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>9141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4026</v>
+        <v>3802</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17854</v>
+        <v>18641</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01702633816112857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007499379733137175</v>
+        <v>0.007082523566363435</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03325728975116492</v>
+        <v>0.0347222988112826</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4922</v>
+        <v>5285</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005841166249619925</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02933408186081693</v>
+        <v>0.03150012445349269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1504,19 +1504,19 @@
         <v>10121</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4273</v>
+        <v>3927</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19507</v>
+        <v>18463</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01436303371262746</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006064575250058464</v>
+        <v>0.005573165514653594</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02768295400371452</v>
+        <v>0.02620251840972542</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>1096191</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1072859</v>
+        <v>1072588</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1114364</v>
+        <v>1115795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8944615970386849</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8754230525821201</v>
+        <v>0.8752016979948186</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9092901625704565</v>
+        <v>0.9104580049789115</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>621</v>
@@ -1629,19 +1629,19 @@
         <v>638293</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>620717</v>
+        <v>622572</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>651664</v>
+        <v>653220</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9024681822957407</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8776176718578976</v>
+        <v>0.8802400575446213</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9213722575860672</v>
+        <v>0.9235728358517906</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1703</v>
@@ -1650,19 +1650,19 @@
         <v>1734484</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1706906</v>
+        <v>1704835</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1763300</v>
+        <v>1758463</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8973914577455709</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.883122855916323</v>
+        <v>0.8820512674351061</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9123001255905931</v>
+        <v>0.9097974271274469</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>112550</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95064</v>
+        <v>93760</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132521</v>
+        <v>134564</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09183746481980068</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07756960316975992</v>
+        <v>0.07650570145230783</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1081336689169661</v>
+        <v>0.1098001188435144</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -1700,19 +1700,19 @@
         <v>52663</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40773</v>
+        <v>39959</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67956</v>
+        <v>68039</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07445881136360487</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0576482524774076</v>
+        <v>0.05649699074493692</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09608116067209867</v>
+        <v>0.09619812880753387</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>161</v>
@@ -1721,19 +1721,19 @@
         <v>165213</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>139316</v>
+        <v>144294</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>190382</v>
+        <v>192485</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08547807036321538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07207980640998424</v>
+        <v>0.0746549684113952</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09850033966113479</v>
+        <v>0.09958831480748648</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>16791</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10607</v>
+        <v>9563</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26586</v>
+        <v>25477</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01370093814151445</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008655058707186254</v>
+        <v>0.00780278582583688</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02169356409273663</v>
+        <v>0.02078877498024507</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1771,19 +1771,19 @@
         <v>16319</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9766</v>
+        <v>9736</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25647</v>
+        <v>24981</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02307300634065445</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0138082471066953</v>
+        <v>0.0137654187430598</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03626150447825526</v>
+        <v>0.03531970698056554</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -1792,19 +1792,19 @@
         <v>33110</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23251</v>
+        <v>23498</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>46142</v>
+        <v>45591</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01713047189121365</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01202946751825968</v>
+        <v>0.01215740762463276</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02387286503943594</v>
+        <v>0.02358785095885172</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>307925</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>295348</v>
+        <v>296312</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>318051</v>
+        <v>319807</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.889929817192829</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8535833790678052</v>
+        <v>0.8563693954222323</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9191963150432457</v>
+        <v>0.9242711578996592</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>466</v>
@@ -1917,19 +1917,19 @@
         <v>489159</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>472091</v>
+        <v>469395</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>505595</v>
+        <v>503873</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8668100378111506</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.836564064557841</v>
+        <v>0.8317879647968857</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8959346476745009</v>
+        <v>0.89288395803695</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>763</v>
@@ -1938,19 +1938,19 @@
         <v>797083</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>776214</v>
+        <v>774274</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>815833</v>
+        <v>816343</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8755976949986187</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8526736923098103</v>
+        <v>0.8505417932992334</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8961944166126293</v>
+        <v>0.896755358449988</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>29239</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20280</v>
+        <v>20516</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40131</v>
+        <v>40827</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0845038043135823</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05860976240336602</v>
+        <v>0.059291775957868</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1159809625813791</v>
+        <v>0.1179934069349958</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>57</v>
@@ -1988,19 +1988,19 @@
         <v>62234</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>46927</v>
+        <v>46887</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>78847</v>
+        <v>78263</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1102803819542612</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08315639339947808</v>
+        <v>0.08308539907300952</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1397205388635535</v>
+        <v>0.1386844605621506</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>87</v>
@@ -2009,19 +2009,19 @@
         <v>91473</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>74473</v>
+        <v>72778</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>109858</v>
+        <v>111541</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1004828953938165</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08180846647769406</v>
+        <v>0.07994636943325512</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1206788747148994</v>
+        <v>0.1225281665445648</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>8846</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4238</v>
+        <v>3734</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15622</v>
+        <v>15247</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02556637849358867</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01224824169387564</v>
+        <v>0.01079072692973208</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04514951390585002</v>
+        <v>0.04406551703917478</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2059,19 +2059,19 @@
         <v>12928</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7090</v>
+        <v>6777</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22788</v>
+        <v>22739</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02290958023458819</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01256380892928859</v>
+        <v>0.01200956397505136</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04038040967246112</v>
+        <v>0.04029358885789113</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -2080,19 +2080,19 @@
         <v>21775</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13081</v>
+        <v>13100</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>31517</v>
+        <v>32549</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02391940960756482</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01436952708956282</v>
+        <v>0.0143905348037347</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03462179964127637</v>
+        <v>0.03575516632396624</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>273026</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>263496</v>
+        <v>262487</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>280937</v>
+        <v>280243</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9208527729359443</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8887087898883241</v>
+        <v>0.8853067289260909</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9475333495463018</v>
+        <v>0.9451927644250547</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1095</v>
@@ -2205,19 +2205,19 @@
         <v>1099007</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1074004</v>
+        <v>1073730</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1119560</v>
+        <v>1120703</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8925089673602393</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8722036903961697</v>
+        <v>0.8719814951994848</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9092005071683892</v>
+        <v>0.9101281426444946</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1375</v>
@@ -2226,19 +2226,19 @@
         <v>1372033</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1345823</v>
+        <v>1343863</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1397359</v>
+        <v>1394471</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8980092962508384</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8808541385233064</v>
+        <v>0.8795718138062363</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9145854809091544</v>
+        <v>0.9126949672791455</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>21619</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13965</v>
+        <v>14323</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31327</v>
+        <v>31975</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07291557711067578</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04710209307465512</v>
+        <v>0.04830736276875321</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1056597910736337</v>
+        <v>0.1078453704757528</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>100</v>
@@ -2276,19 +2276,19 @@
         <v>105064</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>85782</v>
+        <v>86561</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>128207</v>
+        <v>128454</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08532266481428195</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06966393111968144</v>
+        <v>0.0702963472974172</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1041172056936737</v>
+        <v>0.1043180179876389</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>122</v>
@@ -2297,19 +2297,19 @@
         <v>126683</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104234</v>
+        <v>105278</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>150152</v>
+        <v>152135</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08291497602450153</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06822209426150373</v>
+        <v>0.0689056973383541</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09827567204512203</v>
+        <v>0.09957406465228415</v>
       </c>
     </row>
     <row r="26">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6220</v>
+        <v>8193</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006231649953379929</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02097922377670474</v>
+        <v>0.02763275875597786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -2347,19 +2347,19 @@
         <v>27297</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18225</v>
+        <v>17187</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39276</v>
+        <v>39598</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02216836782547872</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01480055904095344</v>
+        <v>0.01395804087165272</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03189622305314364</v>
+        <v>0.03215744782882958</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -2368,19 +2368,19 @@
         <v>29145</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19642</v>
+        <v>19658</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>40804</v>
+        <v>40991</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01907572772466014</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01285616001204753</v>
+        <v>0.01286612546005937</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.026706833458099</v>
+        <v>0.02682929533585301</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>2891134</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2855906</v>
+        <v>2852829</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2929643</v>
+        <v>2925598</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8929604060445197</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8820797382495134</v>
+        <v>0.8811294925202754</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9048542246295256</v>
+        <v>0.9036047969405716</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2925</v>
@@ -2493,19 +2493,19 @@
         <v>2985557</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2950271</v>
+        <v>2949796</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3019167</v>
+        <v>3019389</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8924915585835864</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8819431510832747</v>
+        <v>0.8818012784337452</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.90253856578514</v>
+        <v>0.9026049998402195</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5759</v>
@@ -2514,19 +2514,19 @@
         <v>5876692</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5822260</v>
+        <v>5826520</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5929102</v>
+        <v>5925116</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8927221541952362</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8844534184745111</v>
+        <v>0.8851006201361327</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.900683733202453</v>
+        <v>0.9000782354580206</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>288294</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>256639</v>
+        <v>255585</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>322482</v>
+        <v>322002</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08904298650976018</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0792659444574605</v>
+        <v>0.07894033784040357</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09960216378794087</v>
+        <v>0.09945397808564452</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>269</v>
@@ -2564,19 +2564,19 @@
         <v>286995</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>256896</v>
+        <v>257103</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>320991</v>
+        <v>321148</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08579311978434058</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07679545938565994</v>
+        <v>0.07685754180758606</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09595590213640769</v>
+        <v>0.09600284582727812</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>552</v>
@@ -2585,19 +2585,19 @@
         <v>575289</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>531806</v>
+        <v>531508</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>624169</v>
+        <v>620947</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08739151812873322</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08078614165345138</v>
+        <v>0.08074076555322904</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09481683694293865</v>
+        <v>0.09432736733680032</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>58268</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44032</v>
+        <v>43909</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>76833</v>
+        <v>75629</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01799660744572019</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01359993361917358</v>
+        <v>0.01356183458486949</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02373061821790821</v>
+        <v>0.02335874455246737</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>71</v>
@@ -2635,19 +2635,19 @@
         <v>72642</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>57341</v>
+        <v>57472</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>92106</v>
+        <v>92223</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02171532163207301</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0171412924435787</v>
+        <v>0.0171804757962252</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02753373935399765</v>
+        <v>0.02756875180892479</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>128</v>
@@ -2656,19 +2656,19 @@
         <v>130910</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>111091</v>
+        <v>108639</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>156832</v>
+        <v>154933</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01988632767603062</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01687578767951927</v>
+        <v>0.01650319507775763</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02382414487484578</v>
+        <v>0.02353566124157259</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>400346</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>387834</v>
+        <v>388310</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>410198</v>
+        <v>410247</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9177554012690837</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8890736419505758</v>
+        <v>0.8901633879581988</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9403398466374974</v>
+        <v>0.9404533869763391</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>253</v>
@@ -3023,19 +3023,19 @@
         <v>281291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>269878</v>
+        <v>270572</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>290100</v>
+        <v>290504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9140530218904627</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8769673860081308</v>
+        <v>0.8792218493672654</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9426784238019891</v>
+        <v>0.943991210626233</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>621</v>
@@ -3044,19 +3044,19 @@
         <v>681638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>663547</v>
+        <v>664539</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>695092</v>
+        <v>695298</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9162239140758976</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8919068574256114</v>
+        <v>0.8932410108852322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9343087378798529</v>
+        <v>0.9345860026824996</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>23610</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15415</v>
+        <v>15143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34699</v>
+        <v>34331</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05412462842407737</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0353368912281566</v>
+        <v>0.03471407664848955</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07954402436780797</v>
+        <v>0.07870143466676825</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -3094,19 +3094,19 @@
         <v>19018</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11571</v>
+        <v>11828</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29565</v>
+        <v>30193</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06179936622911213</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03760118897134668</v>
+        <v>0.03843466602236763</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09607188990540201</v>
+        <v>0.09811262799743345</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -3115,19 +3115,19 @@
         <v>42629</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29899</v>
+        <v>30470</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>57824</v>
+        <v>56703</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05729927949504608</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04018888629951255</v>
+        <v>0.04095591077118207</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07772476642023572</v>
+        <v>0.07621699245437467</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>12267</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6127</v>
+        <v>6668</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20245</v>
+        <v>20244</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02811997030683891</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01404589622812657</v>
+        <v>0.01528546410556761</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04640862984653501</v>
+        <v>0.04640660219405737</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -3165,19 +3165,19 @@
         <v>7431</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3553</v>
+        <v>3618</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14043</v>
+        <v>13918</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0241476118804252</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01154707050615513</v>
+        <v>0.01175629685886388</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04563388980317944</v>
+        <v>0.04522532604754211</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -3186,19 +3186,19 @@
         <v>19698</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11862</v>
+        <v>12504</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29523</v>
+        <v>30252</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02647680642905628</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01594436628862199</v>
+        <v>0.01680712230650198</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03968397428417457</v>
+        <v>0.040663791322679</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>362914</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345419</v>
+        <v>346092</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376301</v>
+        <v>376146</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8790904439819034</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8367121857656884</v>
+        <v>0.8383422324562922</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.911517666740691</v>
+        <v>0.9111420361537901</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>273</v>
@@ -3311,19 +3311,19 @@
         <v>302608</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>289912</v>
+        <v>288822</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>313357</v>
+        <v>311663</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9024386935953961</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8645746034851337</v>
+        <v>0.8613251914021299</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9344938705743124</v>
+        <v>0.929440246911875</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>604</v>
@@ -3332,19 +3332,19 @@
         <v>665522</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>644179</v>
+        <v>647299</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>681752</v>
+        <v>683038</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8895551734202758</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.861026849592048</v>
+        <v>0.8651972699195608</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9112478459126655</v>
+        <v>0.9129673958232135</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>35656</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24623</v>
+        <v>25554</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>50999</v>
+        <v>50293</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08636895712254565</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05964420231070243</v>
+        <v>0.06189925109476439</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1235352650935904</v>
+        <v>0.1218244106360291</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -3382,19 +3382,19 @@
         <v>27104</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17295</v>
+        <v>18856</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38813</v>
+        <v>39856</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0808303422304182</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0515783181268419</v>
+        <v>0.05623374217289274</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1157492053095529</v>
+        <v>0.1188588861940581</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -3403,19 +3403,19 @@
         <v>62760</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49278</v>
+        <v>48304</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>81887</v>
+        <v>79806</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0838865394994293</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06586634239056176</v>
+        <v>0.06456495079844848</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1094528545000507</v>
+        <v>0.106670596802313</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>14259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7724</v>
+        <v>7081</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27108</v>
+        <v>26130</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03454059889555099</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01870968612088303</v>
+        <v>0.01715237013249134</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06566408346985926</v>
+        <v>0.06329390232115482</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3453,19 +3453,19 @@
         <v>5610</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1905</v>
+        <v>1973</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13035</v>
+        <v>13290</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01673096417418571</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005680353717635914</v>
+        <v>0.005884850768010765</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03887399658128723</v>
+        <v>0.03963408370769285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -3474,19 +3474,19 @@
         <v>19870</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11625</v>
+        <v>10830</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33086</v>
+        <v>32552</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02655828708029495</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0155386370976499</v>
+        <v>0.01447533964291787</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04422367673960798</v>
+        <v>0.0435101979562957</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>574605</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>559044</v>
+        <v>558125</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>587410</v>
+        <v>587613</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9184085913882134</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8935372412384311</v>
+        <v>0.8920681896541152</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9388745931280029</v>
+        <v>0.9391998758732767</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>226</v>
@@ -3599,19 +3599,19 @@
         <v>240822</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>230641</v>
+        <v>231790</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>247014</v>
+        <v>246846</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.944798534790974</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9048595113831175</v>
+        <v>0.9093653280681833</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9690935087282803</v>
+        <v>0.9684333050459671</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>767</v>
@@ -3620,19 +3620,19 @@
         <v>815427</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>796118</v>
+        <v>798112</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>829198</v>
+        <v>830588</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9260476967609557</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9041193721521652</v>
+        <v>0.906383603328034</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.941687130660228</v>
+        <v>0.9432656632575988</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>43929</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32141</v>
+        <v>32837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59083</v>
+        <v>59873</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07021260581646495</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05137181660229944</v>
+        <v>0.05248513723575409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0944340586587113</v>
+        <v>0.09569603384308144</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -3670,19 +3670,19 @@
         <v>11019</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5942</v>
+        <v>5851</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19003</v>
+        <v>18774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04323081439374684</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02331312746261695</v>
+        <v>0.02295556468503194</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07455247072517378</v>
+        <v>0.07365380334880296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -3691,19 +3691,19 @@
         <v>54948</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41094</v>
+        <v>40974</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71424</v>
+        <v>71381</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06240217800774384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04666891766514496</v>
+        <v>0.04653214963155869</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0811138640170191</v>
+        <v>0.08106426061695886</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>7119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3438</v>
+        <v>3027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14825</v>
+        <v>14458</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01137880279532167</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005495312974920059</v>
+        <v>0.004837500229626221</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02369550402851856</v>
+        <v>0.0231089291543989</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11045</v>
+        <v>11725</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01197065081527919</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04333253528919449</v>
+        <v>0.04599796724887931</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -3762,19 +3762,19 @@
         <v>10170</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4831</v>
+        <v>4811</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19047</v>
+        <v>18711</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0115501252313005</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00548685644469071</v>
+        <v>0.005463161130460035</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02163128514410461</v>
+        <v>0.02124971385958591</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>1058042</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1036874</v>
+        <v>1035209</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1079074</v>
+        <v>1077959</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9192417424085528</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9008506527827732</v>
+        <v>0.8994047312245194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9375149227496758</v>
+        <v>0.9365460724714556</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>641</v>
@@ -3887,19 +3887,19 @@
         <v>691548</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>673827</v>
+        <v>672918</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>706870</v>
+        <v>706458</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9092410112658199</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8859423157890494</v>
+        <v>0.8847465931247767</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9293870006808536</v>
+        <v>0.9288443023992773</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1634</v>
@@ -3908,19 +3908,19 @@
         <v>1749590</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1720826</v>
+        <v>1723402</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1773902</v>
+        <v>1774526</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9152626448450086</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9002155008970378</v>
+        <v>0.9015633943139287</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9279811811901818</v>
+        <v>0.9283074640914174</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>67135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49828</v>
+        <v>50772</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>84835</v>
+        <v>85603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05832763060237895</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04329132638898608</v>
+        <v>0.04411155086361654</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07370617853731561</v>
+        <v>0.0743732373851404</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -3958,19 +3958,19 @@
         <v>54678</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40704</v>
+        <v>41943</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69162</v>
+        <v>71357</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0718899430908307</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05351749025747523</v>
+        <v>0.05514597815361292</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09093360237548463</v>
+        <v>0.09381952607024832</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>111</v>
@@ -3979,19 +3979,19 @@
         <v>121813</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100257</v>
+        <v>101445</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>145341</v>
+        <v>145431</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06372381252234167</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05244732228040325</v>
+        <v>0.05306897473362957</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07603238023667988</v>
+        <v>0.07607916371867775</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>25818</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15977</v>
+        <v>16218</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38599</v>
+        <v>37218</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02243062698906819</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01388077804783471</v>
+        <v>0.01409028152285405</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03353564760919152</v>
+        <v>0.03233561529763907</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -4029,19 +4029,19 @@
         <v>14351</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7849</v>
+        <v>7826</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25149</v>
+        <v>24405</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01886904564334937</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01031917466108084</v>
+        <v>0.01028956067644427</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03306573531589609</v>
+        <v>0.03208731995099168</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -4050,19 +4050,19 @@
         <v>40169</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28344</v>
+        <v>27660</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>55288</v>
+        <v>55773</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02101354263264968</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01482774056380843</v>
+        <v>0.01446962146196169</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02892276007847284</v>
+        <v>0.02917659028711077</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>466015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>454108</v>
+        <v>452916</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>476861</v>
+        <v>477179</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9224580239731579</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8988897078194931</v>
+        <v>0.8965289426206693</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9439276953383696</v>
+        <v>0.9445565464545819</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>643</v>
@@ -4175,19 +4175,19 @@
         <v>697703</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>680731</v>
+        <v>680418</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>710585</v>
+        <v>711087</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9236891811704742</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9012202297941732</v>
+        <v>0.900804801258569</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9407430786392144</v>
+        <v>0.9414082248206941</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1086</v>
@@ -4196,19 +4196,19 @@
         <v>1163719</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1143745</v>
+        <v>1143033</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1181201</v>
+        <v>1182699</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9231957656243479</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9073504140699816</v>
+        <v>0.9067852316284879</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9370647557463753</v>
+        <v>0.9382530596029106</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>30926</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21793</v>
+        <v>21680</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43179</v>
+        <v>43980</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06121738352064835</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04313886216195579</v>
+        <v>0.04291494547721619</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08547148480333117</v>
+        <v>0.08705717259104866</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>44</v>
@@ -4246,19 +4246,19 @@
         <v>47078</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34987</v>
+        <v>35248</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>62164</v>
+        <v>63448</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06232593457986499</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04631867321457634</v>
+        <v>0.04666496294208625</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08229914008871156</v>
+        <v>0.08399912236855293</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>75</v>
@@ -4267,19 +4267,19 @@
         <v>78004</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>61391</v>
+        <v>62952</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>95440</v>
+        <v>98733</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06188165636138525</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04870270738267748</v>
+        <v>0.04994086039920925</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07571402407699016</v>
+        <v>0.07832611421037319</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>8247</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3848</v>
+        <v>3882</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16770</v>
+        <v>15445</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01632459250619379</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007617334967673494</v>
+        <v>0.007683494393471699</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03319457954057793</v>
+        <v>0.03057333366494677</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4317,19 +4317,19 @@
         <v>10563</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5678</v>
+        <v>4815</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19952</v>
+        <v>19435</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01398488424966087</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007516981229642848</v>
+        <v>0.00637433195708126</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02641488827074702</v>
+        <v>0.02573026533635965</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -4338,19 +4338,19 @@
         <v>18810</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11713</v>
+        <v>11786</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29849</v>
+        <v>29284</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01492257801426684</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009291754331472689</v>
+        <v>0.009349773586008111</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02367975806699706</v>
+        <v>0.0232315092374925</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>237813</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>227241</v>
+        <v>227231</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>245360</v>
+        <v>245836</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9019666029194475</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8618727736105031</v>
+        <v>0.8618342488474814</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9305937904803701</v>
+        <v>0.9323993321820414</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>939</v>
@@ -4463,19 +4463,19 @@
         <v>998779</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>977813</v>
+        <v>975549</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1016447</v>
+        <v>1016355</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.906862743761483</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8878262840621446</v>
+        <v>0.8857706829430292</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9229054266721073</v>
+        <v>0.9228219526986042</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1175</v>
@@ -4484,19 +4484,19 @@
         <v>1236591</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1213059</v>
+        <v>1212505</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1259207</v>
+        <v>1256415</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9059170294125541</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8886771496363577</v>
+        <v>0.8882718650565709</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9224849378373705</v>
+        <v>0.9204398835633322</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>23735</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16262</v>
+        <v>16539</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33766</v>
+        <v>34415</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09002001676252425</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06167687609607426</v>
+        <v>0.06272780310569086</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1280673099285329</v>
+        <v>0.1305274845133055</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>78</v>
@@ -4534,19 +4534,19 @@
         <v>82698</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67131</v>
+        <v>66547</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101890</v>
+        <v>103673</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07508705736511365</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06095286992420181</v>
+        <v>0.06042290542304028</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09251292477931601</v>
+        <v>0.09413254642983164</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>102</v>
@@ -4555,19 +4555,19 @@
         <v>106432</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86862</v>
+        <v>88460</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>127730</v>
+        <v>126976</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07797143394449153</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06363470841884621</v>
+        <v>0.06480544361574085</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09357384735273629</v>
+        <v>0.09302162615046108</v>
       </c>
     </row>
     <row r="26">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7294</v>
+        <v>7873</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008013380318028217</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02766599018153585</v>
+        <v>0.02986125303497212</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -4605,19 +4605,19 @@
         <v>19880</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12332</v>
+        <v>12627</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31401</v>
+        <v>30911</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01805019887340338</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01119688131301999</v>
+        <v>0.01146505650973213</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02851150490832625</v>
+        <v>0.0280660829776573</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -4626,19 +4626,19 @@
         <v>21993</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14111</v>
+        <v>13430</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33353</v>
+        <v>32747</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01611153664295431</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0103376579868765</v>
+        <v>0.009839063722666195</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02443416525634622</v>
+        <v>0.0239905415939405</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>3099735</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3059580</v>
+        <v>3064889</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3130729</v>
+        <v>3133477</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9131510366252481</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9013216439490365</v>
+        <v>0.9028857226909656</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9222815459833209</v>
+        <v>0.9230909577462956</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2975</v>
@@ -4751,19 +4751,19 @@
         <v>3212750</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3177051</v>
+        <v>3180587</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3247081</v>
+        <v>3247333</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9139511431082299</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9037954850543913</v>
+        <v>0.9048015613074215</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9237174199783643</v>
+        <v>0.9237890766781748</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5887</v>
@@ -4772,19 +4772,19 @@
         <v>6312485</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6260312</v>
+        <v>6260280</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6359436</v>
+        <v>6357126</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9135580771066882</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9060074710760807</v>
+        <v>0.906002857454262</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9203528694518202</v>
+        <v>0.9200186093814576</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>224991</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>196400</v>
+        <v>195382</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>259659</v>
+        <v>255983</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06627996313651129</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05785737429852646</v>
+        <v>0.05755769455759582</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07649300161454703</v>
+        <v>0.07541005731244302</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>226</v>
@@ -4822,19 +4822,19 @@
         <v>241595</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>212781</v>
+        <v>213381</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>273968</v>
+        <v>271541</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06872791064069624</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06053110623316444</v>
+        <v>0.0607018960616526</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07793740089825245</v>
+        <v>0.07724688044269748</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>434</v>
@@ -4843,19 +4843,19 @@
         <v>466585</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>425021</v>
+        <v>429925</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>510546</v>
+        <v>513920</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06752531453890251</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0615100603436814</v>
+        <v>0.06221975715616962</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07388740894585887</v>
+        <v>0.07437576518421629</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>69822</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>55728</v>
+        <v>53031</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90934</v>
+        <v>88301</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02056900023824057</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01641680531856722</v>
+        <v>0.01562226294355522</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02678815955562081</v>
+        <v>0.02601262636716536</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>57</v>
@@ -4893,19 +4893,19 @@
         <v>60887</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>45846</v>
+        <v>44962</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>78361</v>
+        <v>78071</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01732094625107392</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01304196169163609</v>
+        <v>0.0127905342726502</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02229189145597935</v>
+        <v>0.02220927120196026</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>120</v>
@@ -4914,19 +4914,19 @@
         <v>130710</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>108701</v>
+        <v>108175</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>157613</v>
+        <v>157017</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01891660835440924</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01573149354792471</v>
+        <v>0.01565533547606245</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02281008824247273</v>
+        <v>0.02272392867475442</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>386048</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>372078</v>
+        <v>371941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>396922</v>
+        <v>397229</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9060853569169636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.873296581059568</v>
+        <v>0.8729759756989245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9316085056639705</v>
+        <v>0.9323288079096588</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>295</v>
@@ -5281,19 +5281,19 @@
         <v>307276</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>293614</v>
+        <v>293730</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>317873</v>
+        <v>317253</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8950345574526453</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8552394777028774</v>
+        <v>0.8555786860972506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9259001462587053</v>
+        <v>0.9240955921277398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>652</v>
@@ -5302,19 +5302,19 @@
         <v>693324</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>673179</v>
+        <v>672984</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>708578</v>
+        <v>709168</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9011542293678099</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8749714024860983</v>
+        <v>0.8747172266289328</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9209812703757541</v>
+        <v>0.9217479034873767</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>32778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23171</v>
+        <v>22670</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46684</v>
+        <v>45903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07693343933430426</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05438375171961747</v>
+        <v>0.05320766406905639</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1095722004410369</v>
+        <v>0.1077382799535691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -5352,19 +5352,19 @@
         <v>24898</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16237</v>
+        <v>16234</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37649</v>
+        <v>36411</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07252195735604119</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04729383716930214</v>
+        <v>0.04728587251602497</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1096636285627788</v>
+        <v>0.1060586990422782</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>52</v>
@@ -5373,19 +5373,19 @@
         <v>57676</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44568</v>
+        <v>43922</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76986</v>
+        <v>75266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07496493195292904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05792772454141388</v>
+        <v>0.05708868887470223</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1000634992194433</v>
+        <v>0.09782812832849302</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>7235</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3043</v>
+        <v>3108</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14473</v>
+        <v>14298</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01698120374873221</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007141653036227663</v>
+        <v>0.007294156032443917</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03396833715586921</v>
+        <v>0.0335581602040817</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -5423,19 +5423,19 @@
         <v>11138</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5457</v>
+        <v>6068</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18211</v>
+        <v>20828</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03244348519131354</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01589594205130192</v>
+        <v>0.01767567078913522</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05304610625437479</v>
+        <v>0.06066663229219046</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -5444,19 +5444,19 @@
         <v>18373</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10955</v>
+        <v>11017</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>27908</v>
+        <v>28767</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02388083867926107</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01423823358040759</v>
+        <v>0.01431965017858154</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03627388848872717</v>
+        <v>0.03739010033162298</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>335090</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>321011</v>
+        <v>321523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>345956</v>
+        <v>345806</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8956147460394763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8579847374865258</v>
+        <v>0.8593531229723876</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9246573828765953</v>
+        <v>0.9242569576608929</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>310</v>
@@ -5569,19 +5569,19 @@
         <v>325706</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>312760</v>
+        <v>311568</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337453</v>
+        <v>335896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.88706921938714</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8518092848184379</v>
+        <v>0.8485627164821382</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9190625795315842</v>
+        <v>0.9148219688079572</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>625</v>
@@ -5590,19 +5590,19 @@
         <v>660796</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>642558</v>
+        <v>642610</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>677067</v>
+        <v>677969</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8913821761496201</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8667797826908573</v>
+        <v>0.8668497225590751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9133306815408357</v>
+        <v>0.9145481630765399</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>31744</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21908</v>
+        <v>22837</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43959</v>
+        <v>44791</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08484483328341988</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05855522537284192</v>
+        <v>0.06103769675581829</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1174906847062232</v>
+        <v>0.1197160672658637</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -5640,19 +5640,19 @@
         <v>33021</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22693</v>
+        <v>23309</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>45635</v>
+        <v>45567</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08993487057159213</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06180494981417256</v>
+        <v>0.06348153308964816</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1242892001516534</v>
+        <v>0.1241034374066124</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>59</v>
@@ -5661,19 +5661,19 @@
         <v>64766</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49901</v>
+        <v>48838</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>81226</v>
+        <v>80079</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08736591120414387</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0673140371201907</v>
+        <v>0.06587988209503738</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1095705231625698</v>
+        <v>0.1080233060724649</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>7311</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3053</v>
+        <v>3123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14546</v>
+        <v>14695</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01954042067710376</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008160642494470002</v>
+        <v>0.008347009268651208</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03887834984986187</v>
+        <v>0.03927657604349796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5711,19 +5711,19 @@
         <v>8443</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4061</v>
+        <v>3855</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15742</v>
+        <v>15937</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02299591004126783</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01105915228794419</v>
+        <v>0.01049865446717685</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04287452193271291</v>
+        <v>0.04340464015654781</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -5732,19 +5732,19 @@
         <v>15754</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9437</v>
+        <v>9398</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25767</v>
+        <v>26171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02125191264623603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01273004281436291</v>
+        <v>0.01267782031124367</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03475873257370627</v>
+        <v>0.03530320795125367</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>451938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>434235</v>
+        <v>436537</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>464755</v>
+        <v>465601</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8756247466444432</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8413262191073093</v>
+        <v>0.8457846198306409</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9004583729236658</v>
+        <v>0.9020962391675273</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>139</v>
@@ -5857,19 +5857,19 @@
         <v>150461</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>140458</v>
+        <v>140511</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>156894</v>
+        <v>157290</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9057233206848089</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8455042812107516</v>
+        <v>0.8458244319113336</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9444421426989926</v>
+        <v>0.9468261612305524</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>574</v>
@@ -5878,19 +5878,19 @@
         <v>602399</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>583403</v>
+        <v>583093</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>617912</v>
+        <v>618155</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8829534771871507</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8551106880716361</v>
+        <v>0.8546573750543923</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9056923581629691</v>
+        <v>0.9060477682186753</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>49466</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38260</v>
+        <v>36852</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65791</v>
+        <v>62998</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09584016111104626</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07412752808719397</v>
+        <v>0.07140078682423913</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1274701596879791</v>
+        <v>0.1220588020194072</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -5928,19 +5928,19 @@
         <v>12615</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6732</v>
+        <v>6801</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22351</v>
+        <v>22667</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07594063904686166</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04052565222469489</v>
+        <v>0.04093737948273607</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.134542556628075</v>
+        <v>0.1364461663866305</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -5949,19 +5949,19 @@
         <v>62082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48149</v>
+        <v>46524</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77851</v>
+        <v>79055</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09099480747597094</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07057314882376721</v>
+        <v>0.06819210624491383</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1141090482003624</v>
+        <v>0.1158733711504144</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>14728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8297</v>
+        <v>8331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24164</v>
+        <v>24118</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02853509224451047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01607599335885568</v>
+        <v>0.01614103516391052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04681776707594089</v>
+        <v>0.04672749650215179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -5999,19 +5999,19 @@
         <v>3046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8073</v>
+        <v>8813</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01833604026832946</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.005785266833934788</v>
+        <v>0.005860892771128612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04859690822558381</v>
+        <v>0.05305050905602569</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -6020,19 +6020,19 @@
         <v>17774</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11222</v>
+        <v>10418</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28250</v>
+        <v>27735</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0260517153368784</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01644886904975763</v>
+        <v>0.01527064009423732</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04140643897716197</v>
+        <v>0.04065160763710426</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>976710</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>952382</v>
+        <v>951422</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1000708</v>
+        <v>1000205</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8570373469783757</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8356902083109764</v>
+        <v>0.8348481402945717</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8780948747963316</v>
+        <v>0.8776538513884125</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>705</v>
@@ -6145,19 +6145,19 @@
         <v>730279</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>712477</v>
+        <v>709682</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>746827</v>
+        <v>745253</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8936160733334669</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.871832269803013</v>
+        <v>0.8684116549630009</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9138648566205955</v>
+        <v>0.9119393813055792</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1646</v>
@@ -6166,19 +6166,19 @@
         <v>1706989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1677763</v>
+        <v>1674383</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1736690</v>
+        <v>1735101</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8723133044251478</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8573779958106886</v>
+        <v>0.8556506815322373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.887491330401684</v>
+        <v>0.8866792156549077</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>108122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88905</v>
+        <v>90354</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127430</v>
+        <v>127901</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09487394170064108</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07801206719621603</v>
+        <v>0.07928298123623516</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1118167329164921</v>
+        <v>0.1122294183075945</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -6216,19 +6216,19 @@
         <v>61711</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48621</v>
+        <v>48063</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79145</v>
+        <v>77625</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07551401439821868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05949574782484609</v>
+        <v>0.05881282529782626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09684693941086128</v>
+        <v>0.09498707856888702</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>165</v>
@@ -6237,19 +6237,19 @@
         <v>169833</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>146490</v>
+        <v>146080</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>195305</v>
+        <v>197809</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08678887545821728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07486021164179336</v>
+        <v>0.07465061597642621</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09980547712502767</v>
+        <v>0.101085284226832</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>54804</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39330</v>
+        <v>41152</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70287</v>
+        <v>71113</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04808871132098323</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03451100082625082</v>
+        <v>0.03610960302916934</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06167538039427627</v>
+        <v>0.06239971357708298</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -6287,19 +6287,19 @@
         <v>25227</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16101</v>
+        <v>16853</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36584</v>
+        <v>37695</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03086991226831439</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01970279907847838</v>
+        <v>0.02062234313144987</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04476629733510275</v>
+        <v>0.04612649900639833</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>74</v>
@@ -6308,19 +6308,19 @@
         <v>80031</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>63280</v>
+        <v>61865</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>100027</v>
+        <v>101263</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04089782011663494</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03233775614555084</v>
+        <v>0.03161438853349586</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05111630296695363</v>
+        <v>0.05174792833821837</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>574814</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>560089</v>
+        <v>559263</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>586632</v>
+        <v>586925</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9324548963266216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9085687824352292</v>
+        <v>0.9072289575186762</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9516260588128749</v>
+        <v>0.952102346919546</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>636</v>
@@ -6433,19 +6433,19 @@
         <v>671529</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>655923</v>
+        <v>653067</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>684768</v>
+        <v>685727</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9224609088504868</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9010230369876996</v>
+        <v>0.8971000592131591</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9406457277104949</v>
+        <v>0.941963507918182</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1192</v>
@@ -6454,19 +6454,19 @@
         <v>1246343</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1223874</v>
+        <v>1225337</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1264210</v>
+        <v>1264089</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9270433897747444</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9103308098389298</v>
+        <v>0.9114190575817803</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9403330530381981</v>
+        <v>0.9402433158695034</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>33858</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22883</v>
+        <v>23283</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47303</v>
+        <v>49010</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05492469734493256</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03712078679096923</v>
+        <v>0.03776939516569043</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07673456285223022</v>
+        <v>0.07950330817044432</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -6504,19 +6504,19 @@
         <v>41985</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>29609</v>
+        <v>30224</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55473</v>
+        <v>57721</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05767401934817928</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04067370964882312</v>
+        <v>0.04151809724087095</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07620116450553834</v>
+        <v>0.07928975486391389</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>69</v>
@@ -6525,19 +6525,19 @@
         <v>75844</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>60558</v>
+        <v>58632</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>95269</v>
+        <v>92527</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0564133898282199</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04504369623583967</v>
+        <v>0.04361102157283901</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07086220033297794</v>
+        <v>0.06882249967605292</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>7780</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3809</v>
+        <v>3062</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16406</v>
+        <v>16117</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01262040632844587</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006179453138707074</v>
+        <v>0.004966628711775675</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0266131425003566</v>
+        <v>0.02614489206525217</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -6575,19 +6575,19 @@
         <v>14461</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8403</v>
+        <v>8647</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23911</v>
+        <v>23852</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01986507180133387</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01154344958502979</v>
+        <v>0.01187796995763005</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03284625622608281</v>
+        <v>0.03276429606372969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -6596,19 +6596,19 @@
         <v>22241</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13817</v>
+        <v>14362</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33973</v>
+        <v>33746</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01654322039703567</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01027742986553178</v>
+        <v>0.01068263307996799</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02526980475422935</v>
+        <v>0.02510055612009547</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>267365</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>256890</v>
+        <v>257713</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>273903</v>
+        <v>274629</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9381888561235514</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9014311211954144</v>
+        <v>0.9043183419352736</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9611319172280457</v>
+        <v>0.9636783215130961</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>859</v>
@@ -6721,19 +6721,19 @@
         <v>936182</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>911883</v>
+        <v>911322</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>958410</v>
+        <v>960924</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8697782750652895</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8472020731466342</v>
+        <v>0.8466814005109984</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8904291563504523</v>
+        <v>0.8927652072256889</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1113</v>
@@ -6742,19 +6742,19 @@
         <v>1203547</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1177304</v>
+        <v>1178439</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1228304</v>
+        <v>1227686</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8840993332127836</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8648216397824567</v>
+        <v>0.8656549525539884</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9022849428442852</v>
+        <v>0.9018311320726644</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>15457</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9108</v>
+        <v>8984</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24927</v>
+        <v>25446</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05423785087372505</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03196084558204432</v>
+        <v>0.03152628205870112</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08746828366972721</v>
+        <v>0.08928888146573288</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>89</v>
@@ -6792,19 +6792,19 @@
         <v>96682</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>79221</v>
+        <v>78783</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>119434</v>
+        <v>118189</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08982412818311666</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07360135331407774</v>
+        <v>0.07319511308042825</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1109623923132754</v>
+        <v>0.1098054062015423</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>103</v>
@@ -6813,19 +6813,19 @@
         <v>112139</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>90252</v>
+        <v>93103</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>134760</v>
+        <v>134725</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08237450359702207</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06629716443482819</v>
+        <v>0.06839170508788608</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09899194849080356</v>
+        <v>0.0989657841145032</v>
       </c>
     </row>
     <row r="26">
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6545</v>
+        <v>6846</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007573293002723503</v>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02296734814319104</v>
+        <v>0.02402100613763667</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>39</v>
@@ -6863,19 +6863,19 @@
         <v>43482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31321</v>
+        <v>31301</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57462</v>
+        <v>57794</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04039759675159388</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0290994759113123</v>
+        <v>0.0290809060816493</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05338609098689978</v>
+        <v>0.05369457066781739</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -6884,19 +6884,19 @@
         <v>45640</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>32947</v>
+        <v>32842</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>61751</v>
+        <v>61551</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03352616319019442</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02420215055809723</v>
+        <v>0.02412516476053126</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04536068344220737</v>
+        <v>0.04521365905589179</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>2991963</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2954623</v>
+        <v>2954862</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3028829</v>
+        <v>3028820</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8911536961290711</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8800321363920457</v>
+        <v>0.8801031663653551</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9021341149084771</v>
+        <v>0.9021316462685413</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2944</v>
@@ -7009,19 +7009,19 @@
         <v>3121435</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3084486</v>
+        <v>3082502</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3165283</v>
+        <v>3156542</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8923111187598879</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8817484958778841</v>
+        <v>0.8811815107505934</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9048455000782897</v>
+        <v>0.9023469128714613</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5802</v>
@@ -7030,19 +7030,19 @@
         <v>6113398</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6063146</v>
+        <v>6062316</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6165593</v>
+        <v>6163867</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8917442882701322</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8844142021960585</v>
+        <v>0.8842931718207641</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.899357836212635</v>
+        <v>0.899106136379878</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>271425</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>237919</v>
+        <v>240157</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>306457</v>
+        <v>306566</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08084386002195604</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07086400286574375</v>
+        <v>0.07153062436802465</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09127796870869195</v>
+        <v>0.09131047642570649</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>253</v>
@@ -7080,19 +7080,19 @@
         <v>270913</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>239738</v>
+        <v>240244</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>308287</v>
+        <v>304584</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07744478990897433</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06853281945508231</v>
+        <v>0.06867747648095979</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0881285297198231</v>
+        <v>0.0870699844293136</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>506</v>
@@ -7101,19 +7101,19 @@
         <v>542339</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>496739</v>
+        <v>498046</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>587087</v>
+        <v>587663</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07910943385627277</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07245799760882049</v>
+        <v>0.07264859788454965</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0856367129569135</v>
+        <v>0.08572078855807073</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>94016</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>76005</v>
+        <v>74975</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>115253</v>
+        <v>114619</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02800244384897281</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02263814300189907</v>
+        <v>0.02233117030577052</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03432801509868429</v>
+        <v>0.03413913940287496</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>99</v>
@@ -7151,19 +7151,19 @@
         <v>105798</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>84583</v>
+        <v>84901</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>127285</v>
+        <v>126050</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03024409133113781</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02417933288664266</v>
+        <v>0.02427034575849653</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03638630297673593</v>
+        <v>0.03603324777672674</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>186</v>
@@ -7172,19 +7172,19 @@
         <v>199814</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>174265</v>
+        <v>172509</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>227701</v>
+        <v>228210</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02914627787359503</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02541958431456072</v>
+        <v>0.02516345244727246</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03321403961616445</v>
+        <v>0.03328835290655992</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>523298</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>511444</v>
+        <v>509732</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>532578</v>
+        <v>532105</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9520437558057636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9304784823986804</v>
+        <v>0.9273640821809359</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9689272281515626</v>
+        <v>0.9680669934159901</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>655</v>
@@ -7539,19 +7539,19 @@
         <v>462765</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>449282</v>
+        <v>449000</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>469998</v>
+        <v>470180</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9597084163206787</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9317480510814176</v>
+        <v>0.9311633860868858</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9747085768855613</v>
+        <v>0.9750876475247121</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1182</v>
@@ -7560,19 +7560,19 @@
         <v>986062</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>968555</v>
+        <v>967490</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>997129</v>
+        <v>999062</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9556255218613964</v>
+        <v>0.9556255218613965</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9386586309581764</v>
+        <v>0.9376267035345603</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9663503808172169</v>
+        <v>0.9682242730427114</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>16919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10115</v>
+        <v>10530</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26069</v>
+        <v>26320</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03078150758262726</v>
+        <v>0.03078150758262725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01840246905635505</v>
+        <v>0.01915706071737531</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04742847455487631</v>
+        <v>0.04788458740331045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -7610,19 +7610,19 @@
         <v>15313</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8995</v>
+        <v>8542</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29092</v>
+        <v>29794</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03175713659307164</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01865471097215457</v>
+        <v>0.01771571675383427</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06033364279055485</v>
+        <v>0.06178757887951734</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -7631,19 +7631,19 @@
         <v>32232</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23227</v>
+        <v>21957</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48392</v>
+        <v>48026</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03123742795453417</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02251046352667741</v>
+        <v>0.0212796185345538</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0468985431099106</v>
+        <v>0.0465434119056234</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>9440</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3896</v>
+        <v>4227</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19036</v>
+        <v>20096</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01717473661160918</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007087372621551925</v>
+        <v>0.007689439848398205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03463250548741208</v>
+        <v>0.0365618821122673</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -7681,19 +7681,19 @@
         <v>4115</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1506</v>
+        <v>1449</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8777</v>
+        <v>8365</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.008534447086249617</v>
+        <v>0.008534447086249619</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003123993811042451</v>
+        <v>0.003005291219759388</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01820222077330686</v>
+        <v>0.01734866402116685</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -7702,19 +7702,19 @@
         <v>13555</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7994</v>
+        <v>7362</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23471</v>
+        <v>24675</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01313705018406942</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007746981563468041</v>
+        <v>0.007134873080651052</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02274685431442452</v>
+        <v>0.02391330614365461</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>465261</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455823</v>
+        <v>455383</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>472172</v>
+        <v>472570</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9628511304237191</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9433190617271676</v>
+        <v>0.9424082747351731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9771521025739778</v>
+        <v>0.9779757646292697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>561</v>
@@ -7827,19 +7827,19 @@
         <v>402588</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>395152</v>
+        <v>393876</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>408932</v>
+        <v>408621</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9546743961280263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9370415948458103</v>
+        <v>0.9340142176259616</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9697185840006365</v>
+        <v>0.9689803427199525</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1023</v>
@@ -7848,19 +7848,19 @@
         <v>867849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>855597</v>
+        <v>855649</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>878455</v>
+        <v>877993</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9590406635264739</v>
+        <v>0.9590406635264738</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9455007351803737</v>
+        <v>0.945558619740071</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9707607755789688</v>
+        <v>0.9702498500874246</v>
       </c>
     </row>
     <row r="9">
@@ -7877,19 +7877,19 @@
         <v>13824</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8026</v>
+        <v>7619</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23040</v>
+        <v>22861</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02860850576827971</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01660941613105182</v>
+        <v>0.01576731994655567</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04768091661114254</v>
+        <v>0.04731083751677747</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -7898,19 +7898,19 @@
         <v>13880</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8335</v>
+        <v>8408</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21561</v>
+        <v>21523</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03291427207794094</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01976598668415303</v>
+        <v>0.01993834756361347</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05112844806470854</v>
+        <v>0.05103741260285706</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -7919,19 +7919,19 @@
         <v>27704</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>19416</v>
+        <v>19529</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>38583</v>
+        <v>38840</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03061505011678329</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02145661371514788</v>
+        <v>0.02158067282947771</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04263693891743963</v>
+        <v>0.04292139353360789</v>
       </c>
     </row>
     <row r="10">
@@ -7948,19 +7948,19 @@
         <v>4127</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1176</v>
+        <v>1163</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10342</v>
+        <v>10615</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.008540363808001236</v>
+        <v>0.008540363808001234</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002433585041355906</v>
+        <v>0.002406167657457645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02140229046720859</v>
+        <v>0.02196733099851436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -7969,19 +7969,19 @@
         <v>5234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2642</v>
+        <v>2349</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9522</v>
+        <v>9737</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01241133179403277</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006266265792545455</v>
+        <v>0.005569747960058079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02257959674739173</v>
+        <v>0.02309028248822674</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -7990,19 +7990,19 @@
         <v>9361</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4868</v>
+        <v>5147</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16045</v>
+        <v>16604</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01034428635674285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005378965706652653</v>
+        <v>0.005687998578809084</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01773087619403445</v>
+        <v>0.01834843627008567</v>
       </c>
     </row>
     <row r="11">
@@ -8094,19 +8094,19 @@
         <v>436581</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>420303</v>
+        <v>422717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>445687</v>
+        <v>447128</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9275596610245046</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8929764829969428</v>
+        <v>0.8981048638467644</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9469055487991527</v>
+        <v>0.9499678638532351</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>270</v>
@@ -8115,19 +8115,19 @@
         <v>172865</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>161635</v>
+        <v>162069</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>178705</v>
+        <v>177901</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.928520710628485</v>
+        <v>0.9285207106284853</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8682008510504391</v>
+        <v>0.8705354529804754</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9598937048971019</v>
+        <v>0.9555734585908459</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>725</v>
@@ -8136,19 +8136,19 @@
         <v>609446</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>592765</v>
+        <v>593267</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>621081</v>
+        <v>621366</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9278320526513939</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9024376952961503</v>
+        <v>0.9032007367814824</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9455464805763092</v>
+        <v>0.945979488615591</v>
       </c>
     </row>
     <row r="13">
@@ -8165,19 +8165,19 @@
         <v>27798</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19143</v>
+        <v>18616</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41818</v>
+        <v>41663</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05905935876599019</v>
+        <v>0.05905935876599022</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04067202855992978</v>
+        <v>0.03955167732017337</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08884687353325151</v>
+        <v>0.08851622762612513</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -8186,19 +8186,19 @@
         <v>9896</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4689</v>
+        <v>5422</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21167</v>
+        <v>20456</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05315274772124864</v>
+        <v>0.05315274772124865</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02518677413343237</v>
+        <v>0.02912457003444841</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1136962585310749</v>
+        <v>0.1098768405324186</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -8207,19 +8207,19 @@
         <v>37693</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26425</v>
+        <v>26985</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53047</v>
+        <v>51327</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05738523977648469</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04022977543892696</v>
+        <v>0.04108224631642372</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08076027048404433</v>
+        <v>0.07814085132803085</v>
       </c>
     </row>
     <row r="14">
@@ -8236,19 +8236,19 @@
         <v>6298</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2464</v>
+        <v>2606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14580</v>
+        <v>14412</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01338098020950529</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005235881735178417</v>
+        <v>0.005536371306361347</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0309759830699418</v>
+        <v>0.03061886069030791</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -8257,19 +8257,19 @@
         <v>3412</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7468</v>
+        <v>7551</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01832654165026623</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007191543080447356</v>
+        <v>0.007200186679280083</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04011368346024289</v>
+        <v>0.04055935589475859</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -8278,19 +8278,19 @@
         <v>9710</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5251</v>
+        <v>4717</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17638</v>
+        <v>17521</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01478270757212128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007994186351754093</v>
+        <v>0.007181085278576301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0268525925587253</v>
+        <v>0.02667418724484307</v>
       </c>
     </row>
     <row r="15">
@@ -8382,19 +8382,19 @@
         <v>1076787</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1060514</v>
+        <v>1060437</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1089465</v>
+        <v>1090052</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9543849390270046</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9399622260516808</v>
+        <v>0.9398934660396508</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.965622230163</v>
+        <v>0.9661424140601822</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1169</v>
@@ -8403,19 +8403,19 @@
         <v>816485</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>803591</v>
+        <v>805477</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>826517</v>
+        <v>827520</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9496041939659506</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9346082339358467</v>
+        <v>0.936802005798886</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9612718721874346</v>
+        <v>0.9624385972202292</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2233</v>
@@ -8424,19 +8424,19 @@
         <v>1893272</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1873124</v>
+        <v>1875335</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1910286</v>
+        <v>1911190</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9523173230835604</v>
+        <v>0.9523173230835608</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9421831713962903</v>
+        <v>0.943295265628908</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9608754065977593</v>
+        <v>0.9613300780315993</v>
       </c>
     </row>
     <row r="17">
@@ -8453,19 +8453,19 @@
         <v>37650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26916</v>
+        <v>26456</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52283</v>
+        <v>51911</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03337039639100875</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02385597324838564</v>
+        <v>0.02344868660782892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04634005186257621</v>
+        <v>0.04600982373764726</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -8474,19 +8474,19 @@
         <v>30993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22806</v>
+        <v>22840</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41970</v>
+        <v>41516</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03604585510824992</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02652435853200422</v>
+        <v>0.02656341781194558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04881233595300908</v>
+        <v>0.04828491998406671</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>81</v>
@@ -8495,19 +8495,19 @@
         <v>68643</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54484</v>
+        <v>54561</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>86497</v>
+        <v>86177</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03452750078146416</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02740570172826666</v>
+        <v>0.02744427761931294</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04350817064598662</v>
+        <v>0.0433473392362719</v>
       </c>
     </row>
     <row r="18">
@@ -8524,19 +8524,19 @@
         <v>13815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7439</v>
+        <v>7675</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23210</v>
+        <v>23962</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01224466458198673</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006593212772527308</v>
+        <v>0.006802177998539965</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02057125480656356</v>
+        <v>0.0212381944933943</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>16</v>
@@ -8545,19 +8545,19 @@
         <v>12338</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6887</v>
+        <v>7011</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20025</v>
+        <v>20008</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01434995092579965</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00800992312556089</v>
+        <v>0.008154605589462224</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02329035404654751</v>
+        <v>0.02327007844888465</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -8566,19 +8566,19 @@
         <v>26153</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17668</v>
+        <v>17613</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>36604</v>
+        <v>38119</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01315517613497518</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008887214417896029</v>
+        <v>0.008859537988544972</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01841170802077594</v>
+        <v>0.01917398067994134</v>
       </c>
     </row>
     <row r="19">
@@ -8670,19 +8670,19 @@
         <v>542320</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>530981</v>
+        <v>529756</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>550308</v>
+        <v>550705</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9565129877363789</v>
+        <v>0.9565129877363788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9365135654961037</v>
+        <v>0.934353591624285</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9706014720459027</v>
+        <v>0.9713023038646328</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1228</v>
@@ -8691,19 +8691,19 @@
         <v>790070</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>779318</v>
+        <v>779892</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>797836</v>
+        <v>798234</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9583363323488971</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9452950330639264</v>
+        <v>0.9459905131834246</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9677569544711246</v>
+        <v>0.9682395985955313</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1749</v>
@@ -8712,19 +8712,19 @@
         <v>1332390</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1317755</v>
+        <v>1317689</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1344955</v>
+        <v>1344777</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9575933416696044</v>
+        <v>0.9575933416696045</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.947075351664487</v>
+        <v>0.9470277905230055</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.966624380563113</v>
+        <v>0.9664959522599128</v>
       </c>
     </row>
     <row r="21">
@@ -8741,19 +8741,19 @@
         <v>15394</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9195</v>
+        <v>8899</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24542</v>
+        <v>25435</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0271513189844276</v>
+        <v>0.02715131898442759</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01621703560719488</v>
+        <v>0.01569502617653912</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04328522231546566</v>
+        <v>0.04486073653055321</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>43</v>
@@ -8762,19 +8762,19 @@
         <v>28276</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21126</v>
+        <v>21067</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38690</v>
+        <v>38001</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.0342978935568698</v>
+        <v>0.03429789355686979</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02562529224467706</v>
+        <v>0.02555413185842271</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04693015392520269</v>
+        <v>0.04609392320458444</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>59</v>
@@ -8783,19 +8783,19 @@
         <v>43670</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>33361</v>
+        <v>33639</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>56595</v>
+        <v>56770</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03138575162838327</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02397651729466478</v>
+        <v>0.02417645723068608</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04067482414222862</v>
+        <v>0.04080076571401651</v>
       </c>
     </row>
     <row r="22">
@@ -8812,19 +8812,19 @@
         <v>9262</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4686</v>
+        <v>4321</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18859</v>
+        <v>19294</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01633569327919348</v>
+        <v>0.01633569327919347</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008265262473535869</v>
+        <v>0.007620292079884144</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03326244739084541</v>
+        <v>0.03402966200277812</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -8833,19 +8833,19 @@
         <v>6072</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2902</v>
+        <v>3011</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11138</v>
+        <v>11460</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.007365774094233058</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003519571512277116</v>
+        <v>0.003652564837300142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01351001435564709</v>
+        <v>0.01390066657139848</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -8854,19 +8854,19 @@
         <v>15334</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9011</v>
+        <v>9086</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23889</v>
+        <v>23792</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01102090670201222</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006475952438256387</v>
+        <v>0.006530070369156414</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01716909660956211</v>
+        <v>0.01709936004774227</v>
       </c>
     </row>
     <row r="23">
@@ -8958,19 +8958,19 @@
         <v>217341</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>199928</v>
+        <v>199238</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>227004</v>
+        <v>227500</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9161686759930145</v>
+        <v>0.9161686759930143</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8427661623376507</v>
+        <v>0.8398572151973975</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.956902628287825</v>
+        <v>0.9589922036185716</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1104</v>
@@ -8979,19 +8979,19 @@
         <v>805232</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>791533</v>
+        <v>792502</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>815092</v>
+        <v>815437</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.9551254914615646</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9388767592772742</v>
+        <v>0.9400258691529071</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9668213319320282</v>
+        <v>0.9672301192339214</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1207</v>
@@ -9000,19 +9000,19 @@
         <v>1022573</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1003540</v>
+        <v>1002453</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1037363</v>
+        <v>1038140</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9465707328943086</v>
+        <v>0.9465707328943085</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.9289529496651102</v>
+        <v>0.9279462272769244</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9602620185808964</v>
+        <v>0.9609809441490279</v>
       </c>
     </row>
     <row r="25">
@@ -9029,19 +9029,19 @@
         <v>14720</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6417</v>
+        <v>6277</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30819</v>
+        <v>31177</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06204982757163167</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02705082249542639</v>
+        <v>0.02645845182921852</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1299112643621597</v>
+        <v>0.1314212499734239</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -9050,19 +9050,19 @@
         <v>29925</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20975</v>
+        <v>21450</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41647</v>
+        <v>41378</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03549585098968815</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02487927416340819</v>
+        <v>0.02544247194847841</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04939980533530306</v>
+        <v>0.04908096738204798</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -9071,19 +9071,19 @@
         <v>44645</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31256</v>
+        <v>31723</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63114</v>
+        <v>62453</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04132699647545006</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0289328496794135</v>
+        <v>0.02936554883452422</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05842273743711164</v>
+        <v>0.05781133665168327</v>
       </c>
     </row>
     <row r="26">
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19424</v>
+        <v>17157</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02178149643535385</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08187804873797641</v>
+        <v>0.0723217410353704</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -9121,19 +9121,19 @@
         <v>7907</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3082</v>
+        <v>3599</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17354</v>
+        <v>18328</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.009378657548747223</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003656221517429236</v>
+        <v>0.00426884751907503</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02058449941791121</v>
+        <v>0.02173998206368953</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -9142,19 +9142,19 @@
         <v>13074</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5780</v>
+        <v>5755</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27107</v>
+        <v>27023</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01210227063024129</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005350405677350934</v>
+        <v>0.00532684189196833</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0250922746712825</v>
+        <v>0.02501459497284747</v>
       </c>
     </row>
     <row r="27">
@@ -9246,19 +9246,19 @@
         <v>3261587</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3233150</v>
+        <v>3231625</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3289402</v>
+        <v>3287869</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9492390354751824</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9409628840282406</v>
+        <v>0.940519054261776</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9573341713668775</v>
+        <v>0.9568878377802298</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4987</v>
@@ -9267,19 +9267,19 @@
         <v>3450004</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3424701</v>
+        <v>3424218</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3474049</v>
+        <v>3469923</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9537339659823624</v>
+        <v>0.9537339659823623</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.94673925972155</v>
+        <v>0.9466055112760279</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9603812155561818</v>
+        <v>0.9592404999998957</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8119</v>
@@ -9288,19 +9288,19 @@
         <v>6711591</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6668064</v>
+        <v>6674768</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6746367</v>
+        <v>6747265</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.9515442895145446</v>
+        <v>0.9515442895145445</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9453732099301154</v>
+        <v>0.9463236030979914</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9564747179129587</v>
+        <v>0.9566019656743927</v>
       </c>
     </row>
     <row r="29">
@@ -9317,19 +9317,19 @@
         <v>126305</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>103067</v>
+        <v>104808</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>150137</v>
+        <v>155602</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.03675942101527877</v>
+        <v>0.03675942101527876</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02999614233731611</v>
+        <v>0.03050278154019536</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04369520987051206</v>
+        <v>0.04528580083141008</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>182</v>
@@ -9338,19 +9338,19 @@
         <v>128283</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>107563</v>
+        <v>110730</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>151319</v>
+        <v>151244</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.03546297061503975</v>
+        <v>0.03546297061503974</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02973511288100597</v>
+        <v>0.03061079116127861</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04183133586947271</v>
+        <v>0.04181052748097</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>302</v>
@@ -9359,19 +9359,19 @@
         <v>254588</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>224575</v>
+        <v>224716</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>288046</v>
+        <v>288286</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.03609452808373955</v>
+        <v>0.03609452808373954</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0318394279963252</v>
+        <v>0.03185943980548018</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04083802550449719</v>
+        <v>0.04087204848614127</v>
       </c>
     </row>
     <row r="30">
@@ -9388,19 +9388,19 @@
         <v>48109</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>34722</v>
+        <v>33651</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>65939</v>
+        <v>64663</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01400154350953877</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01010528736661201</v>
+        <v>0.009793621941100674</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01919063799397432</v>
+        <v>0.01881922441626301</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>53</v>
@@ -9409,19 +9409,19 @@
         <v>39079</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28499</v>
+        <v>29332</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>52230</v>
+        <v>52260</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01080306340259796</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.007878368374291499</v>
+        <v>0.008108784994879889</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01443879995282137</v>
+        <v>0.01444707746380433</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>95</v>
@@ -9430,19 +9430,19 @@
         <v>87188</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>70128</v>
+        <v>69480</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>108909</v>
+        <v>108322</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01236118240171569</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.009942421217612152</v>
+        <v>0.00985066649704068</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01544068960108893</v>
+        <v>0.01535747837148801</v>
       </c>
     </row>
     <row r="31">
